--- a/Deliverables/sprint-01/planning-document.xlsx
+++ b/Deliverables/sprint-01/planning-document.xlsx
@@ -240,10 +240,10 @@
     <t>First Meeting</t>
   </si>
   <si>
+    <t>Jan Ostrizki</t>
+  </si>
+  <si>
     <t>Levin Schulze</t>
-  </si>
-  <si>
-    <t>Jan Ostrizki</t>
   </si>
   <si>
     <t>Build Process Review</t>
@@ -2902,6 +2902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2988,7 +2989,7 @@
         <f t="shared" ref="B4:B12" si="1">B3+7</f>
         <v>45952</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -3011,7 +3012,7 @@
         <f t="shared" si="1"/>
         <v>45959</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -3034,7 +3035,7 @@
         <f t="shared" si="1"/>
         <v>45966</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -3059,7 +3060,7 @@
         <f t="shared" si="1"/>
         <v>45973</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -3082,7 +3083,7 @@
         <f t="shared" si="1"/>
         <v>45980</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -3105,7 +3106,7 @@
         <f t="shared" si="1"/>
         <v>45987</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -3130,7 +3131,7 @@
         <f t="shared" si="1"/>
         <v>45994</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -3153,7 +3154,7 @@
         <f t="shared" si="1"/>
         <v>46001</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -3176,7 +3177,7 @@
         <f t="shared" si="1"/>
         <v>46008</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -3198,7 +3199,7 @@
       <c r="B13" s="18">
         <v>46029.0</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -3221,7 +3222,7 @@
         <f t="shared" ref="B14:B17" si="2">B13+7</f>
         <v>46036</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -3244,7 +3245,7 @@
         <f t="shared" si="2"/>
         <v>46043</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -3267,7 +3268,7 @@
         <f t="shared" si="2"/>
         <v>46050</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -3290,7 +3291,7 @@
         <f t="shared" si="2"/>
         <v>46057</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -3353,6 +3354,9 @@
   <mergeCells count="1">
     <mergeCell ref="C1:D1"/>
   </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -3501,7 +3505,7 @@
         <v>93</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -3509,7 +3513,7 @@
         <v>93</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24">
